--- a/ACL_REMODELO/Endereçamento Modbus.xlsx
+++ b/ACL_REMODELO/Endereçamento Modbus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliveirac\Desktop\ACL REMODELO\ACL_REMODELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B843F-1828-4876-81C0-CF50BE4EE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF8627D-57AC-48FE-BAF2-5B128A6FE4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{ACCE4FE2-BBDF-4187-A78B-3A4B53A33861}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ACCE4FE2-BBDF-4187-A78B-3A4B53A33861}"/>
   </bookViews>
   <sheets>
     <sheet name="ENDEREÇOS" sheetId="8" r:id="rId1"/>
@@ -23,10 +23,12 @@
     <sheet name="CC 3X" sheetId="3" r:id="rId8"/>
     <sheet name="TP 4X" sheetId="6" r:id="rId9"/>
     <sheet name="PF 5X" sheetId="7" r:id="rId10"/>
-    <sheet name="MT 6X" sheetId="10" r:id="rId11"/>
-    <sheet name="IMP 7X" sheetId="14" r:id="rId12"/>
+    <sheet name="Planilha1" sheetId="17" r:id="rId11"/>
+    <sheet name="MT 6X" sheetId="10" r:id="rId12"/>
+    <sheet name="IMP 7X" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,8 +112,42 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>oliveirac</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A3750084-B9C1-4DBE-98F1-7312A3C14973}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>oliveirac:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+51-59</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="337">
   <si>
     <t>TAG</t>
   </si>
@@ -548,51 +584,15 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>MN</t>
   </si>
   <si>
-    <t>Minuto</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Segundo</t>
-  </si>
-  <si>
     <t>SV</t>
   </si>
   <si>
     <t>Salvar</t>
   </si>
   <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
     <t>MOD</t>
   </si>
   <si>
@@ -800,33 +800,9 @@
     <t>LB</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
-    <t>OP2</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PD_AV</t>
-  </si>
-  <si>
-    <t>PD_AT</t>
-  </si>
-  <si>
     <t>ProducaoAtual</t>
   </si>
   <si>
-    <t>Mes</t>
-  </si>
-  <si>
     <t>Imprime</t>
   </si>
   <si>
@@ -881,12 +857,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>MD_TP</t>
-  </si>
-  <si>
-    <t>MD_NM</t>
-  </si>
-  <si>
     <t>Ordem</t>
   </si>
   <si>
@@ -1086,13 +1056,115 @@
   </si>
   <si>
     <t>Passo</t>
+  </si>
+  <si>
+    <t>TrackNumber</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>AlarmNumber</t>
+  </si>
+  <si>
+    <t>ProductionCurrent</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>OrderA</t>
+  </si>
+  <si>
+    <t>OrderB</t>
+  </si>
+  <si>
+    <t>ProductionGoal</t>
+  </si>
+  <si>
+    <t>ReworkGoal</t>
+  </si>
+  <si>
+    <t>RepositionGoal</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>FinalDate</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ProductionOrder</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>DeviceRelease</t>
+  </si>
+  <si>
+    <t>btPrint</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>ZGS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,8 +1227,15 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,6 +1262,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1219,12 +1303,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1345,77 +1430,20 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bom" xfId="3" builtinId="26"/>
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Neutro" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="246">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1651,6 +1679,85 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1949,6 +2056,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2059,9 +2180,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color theme="1"/>
@@ -2138,9 +2256,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color theme="1"/>
@@ -2217,9 +2332,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="medium">
           <color theme="1"/>
@@ -2262,6 +2374,418 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2391,6 +2915,46 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2405,331 +2969,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{ACF592B4-A7ED-4F3E-9129-B9153F0E20E9}" name="Tabela10" displayName="Tabela10" ref="B2:F62" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{ACF592B4-A7ED-4F3E-9129-B9153F0E20E9}" name="Tabela10" displayName="Tabela10" ref="B2:F62" totalsRowShown="0" headerRowDxfId="241" dataDxfId="240">
   <autoFilter ref="B2:F62" xr:uid="{98640AEC-24D6-454F-8B42-5C10732EA350}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F62">
     <sortCondition ref="F2:F62"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D762C9D3-F816-488B-90BE-FE2C677641AC}" name="TAG" dataDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{67FC1D74-A27E-4C0E-939B-39F43942CAD1}" name="ED" dataDxfId="162">
+    <tableColumn id="1" xr3:uid="{D762C9D3-F816-488B-90BE-FE2C677641AC}" name="TAG" dataDxfId="239"/>
+    <tableColumn id="3" xr3:uid="{67FC1D74-A27E-4C0E-939B-39F43942CAD1}" name="ED" dataDxfId="238">
       <calculatedColumnFormula>RIGHT(Tabela10[[#This Row],[MB]],4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1FE65D51-6140-442F-9A93-2D86CA18F765}" name="B|N" dataDxfId="161">
+    <tableColumn id="5" xr3:uid="{1FE65D51-6140-442F-9A93-2D86CA18F765}" name="B|N" dataDxfId="237">
       <calculatedColumnFormula>LEFT(Tabela10[[#This Row],[MB]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA66CC52-43CB-4E56-A2A0-5155CC6E1DE9}" name="R|W" dataDxfId="160">
+    <tableColumn id="4" xr3:uid="{AA66CC52-43CB-4E56-A2A0-5155CC6E1DE9}" name="R|W" dataDxfId="236">
       <calculatedColumnFormula>LEFT(Tabela10[[#This Row],[ED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{25855FE3-93D8-4687-A5EF-8BC074DD1411}" name="MB" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{25855FE3-93D8-4687-A5EF-8BC074DD1411}" name="MB" dataDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{FA899953-BF96-45B4-BBE9-1B02C84036C7}" name="Tabela8151720" displayName="Tabela8151720" ref="B2:K6" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
-  <autoFilter ref="B2:K6" xr:uid="{FA899953-BF96-45B4-BBE9-1B02C84036C7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K6">
-    <sortCondition ref="H2:H6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0BDDCE54-F2C8-4BA9-B6C9-BE2E30C6BFBD}" name="Tabela8" displayName="Tabela8" ref="B2:L10" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122">
+  <autoFilter ref="B2:L10" xr:uid="{CF85C72F-0F68-4430-807E-2D471500E9B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K10">
+    <sortCondition ref="H2:H10"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{89511B78-0897-45C0-AD20-D892650070B8}" name="TG" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{5E2A6C8C-1DD9-4BA1-9FF0-F16F6F8423FE}" name="EV" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{159FAFD7-6890-4334-B996-597836CE5BDB}" name="B|N" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{346C03DA-D8CB-42CA-BDD1-64D097B0FD8E}" name="R|W" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{C51C63BB-01AB-4B79-879B-9036BE9E17E5}" name="N" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{56D6AC78-6511-4AC2-A99F-983A56C76FAA}" name="TG CLP" dataDxfId="39">
-      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela8151720[[#This Row],[TG]])</calculatedColumnFormula>
+  <tableColumns count="11">
+    <tableColumn id="12" xr3:uid="{68BF56B2-BAA0-49D7-B8D2-8B2545DB9044}" name="TG" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{49B5BFBB-4244-403C-A050-08FB6D0A187F}" name="EV" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{209CE555-DEF3-44FD-AE04-78DF23445C8B}" name="B|N" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{A38E48A6-7509-44BE-B395-C56C8D2B6CCB}" name="R|W" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{921F9318-CDFF-42BE-B68A-8163622147B8}" name="N" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{0C5C954F-460C-4446-B8B0-D7C7564C62B2}" name="TG CLP" dataDxfId="116">
+      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela8[[#This Row],[TG]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0BDCF540-466E-4058-B5B7-70C49FD68498}" name="MB CLP" dataDxfId="38">
-      <calculatedColumnFormula>IF(Tabela8151720[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151720[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151720[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151720[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{882292A3-4178-4B9A-824A-C481003F7C54}" name="MB CLP" dataDxfId="115">
+      <calculatedColumnFormula>IF(Tabela8[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{19B4D9B3-7113-4D40-9B20-5B0EF345BE97}" name="TG IHM" dataDxfId="37">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8151720[[#This Row],[EV]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{A0CE0E0F-8277-4E25-ADD4-126DC4AF675A}" name="TG IHM" dataDxfId="114">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8[[#This Row],[EV]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BC6B375D-B2A7-4402-A0C6-6DAC64F4E57B}" name="MB IHM" dataDxfId="36">
-      <calculatedColumnFormula>IF(Tabela8151720[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151720[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151720[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{1B81BEB6-F537-440E-947F-4929464D9920}" name="MB IHM" dataDxfId="113">
+      <calculatedColumnFormula>IF(Tabela8[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F8D2E00F-47B8-458D-9E87-6028FCF42E00}" name="Descrição" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{E70FC8C9-8924-40B5-9316-5F5D41F96AE6}" name="Descrição" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{EB9B44D3-0D4E-4E2B-8809-1B506F0D30D5}" name="Coluna1" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{865295CD-7082-458E-9401-9609F80E32FE}" name="Tabela815" displayName="Tabela815" ref="B2:K12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="B2:K12" xr:uid="{865295CD-7082-458E-9401-9609F80E32FE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K9">
-    <sortCondition ref="H2:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69AF835A-0891-46EB-A217-DFAEBD25E0E7}" name="Tabela72" displayName="Tabela72" ref="E2:N23" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106">
+  <autoFilter ref="E2:N23" xr:uid="{69AF835A-0891-46EB-A217-DFAEBD25E0E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:N11">
+    <sortCondition ref="K2:K23"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{84FDFF6B-B3C2-4CE5-B9C8-BF4D93DE50DF}" name="TG" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{70145E7A-49BE-4697-998D-C37C6F206BD1}" name="EV" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{CA52ABA4-4D2D-4FCA-B154-ACFC20A6FE5B}" name="B|N" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{2E894E82-D966-428A-B2ED-C93ED760F927}" name="R|W" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{0CC376F9-D7BE-4831-9B90-FE33E526DA5A}" name="N" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{A8EFE91B-C5A6-45CD-94C3-6618E7D4A577}" name="TG CLP" dataDxfId="25">
-      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela815[[#This Row],[TG]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{0A7A9773-C76B-4C7D-9C2E-376B7E851673}" name="TG" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{8B541A05-C81E-4726-B519-27512A2DEB7D}" name="EV" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{76075376-FE56-4E10-A609-92F3D4C1C4DA}" name="B|N" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{6DC85BF5-1037-4361-8EA5-075971AE518E}" name="R|W" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{96D739C5-7E97-4CD2-A9A5-83A76FE1A4FB}" name="N" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{5D278FB9-5821-4979-8443-E1922BD5F27C}" name="TG CLP" dataDxfId="100">
+      <calculatedColumnFormula>CONCATENATE("IHM_",$F$1,"_",Tabela72[[#This Row],[TG]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F989F54C-341C-4037-9C36-0AEBBE555AA6}" name="MB CLP" dataDxfId="24">
-      <calculatedColumnFormula>IF(Tabela815[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{CDB3B517-E407-4679-B740-3284E946985E}" name="MB CLP" dataDxfId="99">
+      <calculatedColumnFormula>IF(Tabela72[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela72[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela72[[#This Row],[R|W]]="W","5","0"),$E$1,Tabela72[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3860427E-13A9-4AE4-A3C9-93CCC370460A}" name="TG IHM" dataDxfId="23">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela815[[#This Row],[EV]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{364ACF0B-ADC6-4BF3-941B-130A2012E72A}" name="TG IHM" dataDxfId="98">
+      <calculatedColumnFormula>CONCATENATE($F$1,".",F3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C051E382-43D6-480D-A3A9-00F29A06A72D}" name="MB IHM" dataDxfId="22">
-      <calculatedColumnFormula>IF(Tabela815[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{2C60E45A-4F3A-4513-9C04-ED3F0F6C123F}" name="MB IHM" dataDxfId="97">
+      <calculatedColumnFormula>IF(Tabela72[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela72[[#This Row],[R|W]]="W","5","0"),$E$1,Tabela72[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{98AFA6F3-9A95-4278-AC1E-F53F9BFB7D6E}" name="Descrição" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{01FE6E74-B150-45FE-94A1-6312855D37BA}" name="Coluna1" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD4DD242-55CE-45E0-BD62-7CC5CCC0E6CE}" name="Tabela81517" displayName="Tabela81517" ref="B2:K4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
-  <autoFilter ref="B2:K4" xr:uid="{DD4DD242-55CE-45E0-BD62-7CC5CCC0E6CE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K4">
-    <sortCondition ref="H2:H4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4241884D-8A56-4F2A-9974-1EC032D4BD05}" name="Tabela7" displayName="Tabela7" ref="B2:K23" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92">
+  <autoFilter ref="B2:K23" xr:uid="{57204A81-CF48-4D54-96AB-54FBD123DF9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K23">
+    <sortCondition ref="H2:H23"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{A32CE7B6-605B-4695-B3ED-20800B5EE22E}" name="TG" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9B49E3AD-B697-4178-8D3B-85E9D96818B7}" name="EV" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{80979EDA-8373-4759-81B6-22D733EE0CFC}" name="B|N" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C415936B-D275-4A4C-8A09-99FE8796F9CC}" name="R|W" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A71F559D-4526-405F-8C93-0DB9D6CA2CBC}" name="N" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D1CFA5F1-9615-40DE-8DE1-CA9391E54327}" name="TG CLP" dataDxfId="11">
-      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela81517[[#This Row],[TG]])</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{C423B671-324F-4FA6-89CD-38F7E588C29A}" name="TG" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{120A3E2B-E452-4BFC-9634-BC4B7564E6E6}" name="EV" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{42EBF6D4-E2C5-4F1D-9D90-7E6177C7449E}" name="B|N" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{3A5147EB-CF8A-4527-B186-B686FA1BFDBC}" name="R|W" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{13651D3E-F9C9-4002-8059-AABA6AFEDBAC}" name="N" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{0F4F7CE5-5BC7-4A78-A9E3-FC316A7FBC75}" name="TG CLP" dataDxfId="86">
+      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela7[[#This Row],[TG]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{46A15C33-B623-411C-A8A1-866FBCFBAEE3}" name="MB CLP" dataDxfId="10">
-      <calculatedColumnFormula>IF(Tabela81517[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{EE5C7C5C-9E82-420F-8E3E-E7713F669031}" name="MB CLP" dataDxfId="85">
+      <calculatedColumnFormula>IF(Tabela7[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela7[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela7[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela7[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DDBC136E-3598-4FAE-BAFD-D3418CF7E665}" name="TG IHM" dataDxfId="9">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela81517[[#This Row],[EV]])</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{D0D65132-CE04-48D6-BD94-F90EE550E1B5}" name="TG IHM" dataDxfId="84">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{92B8391E-3E22-447F-937C-8C911BA7A4B4}" name="MB IHM" dataDxfId="8">
-      <calculatedColumnFormula>IF(Tabela81517[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517[[#This Row],[N]]))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{8AD9BEBB-600B-4601-A287-52F6C1A54A10}" name="MB IHM" dataDxfId="83">
+      <calculatedColumnFormula>IF(Tabela7[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela7[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela7[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1350B97C-617A-4BDF-9D70-2AE4E5A06E70}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FA383A73-830F-4DC2-8087-23D112B9014D}" name="Coluna1" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EE921E7D-7893-4634-B637-FCC2229891D4}" name="Tabela8151718" displayName="Tabela8151718" ref="B2:K16" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155">
-  <autoFilter ref="B2:K16" xr:uid="{EE921E7D-7893-4634-B637-FCC2229891D4}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Inteira"/>
-        <filter val="String"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K16">
-    <sortCondition ref="H2:H16"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{75655E50-7364-44CC-9822-92764817CE0A}" name="TG" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{4EEE6847-FF25-49FD-8AC7-ED07D3A892D1}" name="EV" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{B249CAEC-C65C-4D1D-BF20-F2A2DC85BD76}" name="B|N" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{F6538BB9-DDD3-4E1A-B896-AAD56CFB0CAD}" name="R|W" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{C40547D0-3224-4C8C-B8B2-5431716C4251}" name="N" dataDxfId="150"/>
-    <tableColumn id="7" xr3:uid="{A1C4178B-7236-4F8B-90CE-1763E48BCB2F}" name="TG CLP" dataDxfId="149">
-      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{BB99007E-4F00-49A0-9EC5-8B7BD277B0C6}" name="MB CLP" dataDxfId="148">
-      <calculatedColumnFormula>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{683AB7F6-6EFD-40E4-B4AD-D54CFD765978}" name="TG IHM" dataDxfId="147">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{284685CE-7807-47D1-8C42-E57A3F2B826A}" name="MB IHM" dataDxfId="146">
-      <calculatedColumnFormula>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{BEC214F1-4C74-4975-BC17-45D6250AE559}" name="Descrição" dataDxfId="145"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{61687305-1C0F-41E9-9F9B-FC2284A10EC3}" name="Tabela815171819" displayName="Tabela815171819" ref="B19:K25" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141">
-  <autoFilter ref="B19:K25" xr:uid="{61687305-1C0F-41E9-9F9B-FC2284A10EC3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:K20">
-    <sortCondition ref="H2:H11"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{8DC69E18-C3E2-4DEF-B6FB-AF9DC2BF7FF0}" name="TG" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{2F3E9349-A5A4-451A-A4B4-A806ADDF74C5}" name="EV" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{66AA777F-7C13-4D0A-BD5A-4D3419D7DBFA}" name="B|N" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{D7A5ED1D-F071-44DA-8F16-2BCF1677411E}" name="R|W" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{1FEB2D34-A3F5-4A46-8CB1-1009D40AE17A}" name="N" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{EFAC6259-15B2-46B8-A373-4D602E3D49F8}" name="TG CLP" dataDxfId="135">
-      <calculatedColumnFormula>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{2855C055-4561-42D2-8439-877A96F3ADB9}" name="MB CLP" dataDxfId="134">
-      <calculatedColumnFormula>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DB20D65-BA0B-4122-A789-1DE4212C4FE8}" name="TG IHM" dataDxfId="133">
-      <calculatedColumnFormula>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{6C754D11-052D-4951-A54A-B43F2C749039}" name="MB IHM" dataDxfId="132">
-      <calculatedColumnFormula>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{5AA7135F-6F52-4431-90A6-004DBDEA31A5}" name="Descrição" dataDxfId="131"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C8B0172F-F144-4F64-B91B-508AA2576852}" name="Tabela8151722" displayName="Tabela8151722" ref="B2:K7" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
-  <autoFilter ref="B2:K7" xr:uid="{C8B0172F-F144-4F64-B91B-508AA2576852}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K7">
-    <sortCondition ref="H2:H7"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{392028FF-9BC0-45B4-9D46-37F4E44A11B1}" name="TG" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{B38EA29F-0233-44ED-A571-D675232F65F3}" name="EV" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{247DEE8D-7FC7-49ED-BAD9-F002987B17D9}" name="B|N" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{56ABC691-DE3A-4BFF-8F3C-F82C9D6D3C7E}" name="R|W" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{C95A13F8-E626-4F99-8818-3CA3B521D058}" name="N" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{A0E3962F-1339-494E-B37B-ACD37A6D3345}" name="TG CLP" dataDxfId="121">
-      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0233878-9D99-406B-B91A-A09307BFE521}" name="MB CLP" dataDxfId="120">
-      <calculatedColumnFormula>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{099905CF-C5D5-4850-9FEF-EE33D5030274}" name="TG IHM" dataDxfId="119">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{4ED111DA-41C0-4295-8D76-BEF85CBFA4BD}" name="MB IHM" dataDxfId="118">
-      <calculatedColumnFormula>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{5B49C92A-E26B-44DF-914D-392ECEC0B4B8}" name="Descrição" dataDxfId="117"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0BDDCE54-F2C8-4BA9-B6C9-BE2E30C6BFBD}" name="Tabela8" displayName="Tabela8" ref="B2:L10" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113">
-  <autoFilter ref="B2:L10" xr:uid="{CF85C72F-0F68-4430-807E-2D471500E9B0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K10">
-    <sortCondition ref="H2:H10"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="12" xr3:uid="{68BF56B2-BAA0-49D7-B8D2-8B2545DB9044}" name="TG" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{49B5BFBB-4244-403C-A050-08FB6D0A187F}" name="EV" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{209CE555-DEF3-44FD-AE04-78DF23445C8B}" name="B|N" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{A38E48A6-7509-44BE-B395-C56C8D2B6CCB}" name="R|W" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{921F9318-CDFF-42BE-B68A-8163622147B8}" name="N" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{0C5C954F-460C-4446-B8B0-D7C7564C62B2}" name="TG CLP" dataDxfId="107">
-      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela8[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{882292A3-4178-4B9A-824A-C481003F7C54}" name="MB CLP" dataDxfId="106">
-      <calculatedColumnFormula>IF(Tabela8[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{A0CE0E0F-8277-4E25-ADD4-126DC4AF675A}" name="TG IHM" dataDxfId="105">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8[[#This Row],[EV]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{1B81BEB6-F537-440E-947F-4929464D9920}" name="MB IHM" dataDxfId="104">
-      <calculatedColumnFormula>IF(Tabela8[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{E70FC8C9-8924-40B5-9316-5F5D41F96AE6}" name="Descrição" dataDxfId="103"/>
-    <tableColumn id="1" xr3:uid="{EB9B44D3-0D4E-4E2B-8809-1B506F0D30D5}" name="Coluna1" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69AF835A-0891-46EB-A217-DFAEBD25E0E7}" name="Tabela72" displayName="Tabela72" ref="E2:N23" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99">
-  <autoFilter ref="E2:N23" xr:uid="{69AF835A-0891-46EB-A217-DFAEBD25E0E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:N11">
-    <sortCondition ref="K2:K23"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{0A7A9773-C76B-4C7D-9C2E-376B7E851673}" name="TG" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{8B541A05-C81E-4726-B519-27512A2DEB7D}" name="EV" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{76075376-FE56-4E10-A609-92F3D4C1C4DA}" name="B|N" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{6DC85BF5-1037-4361-8EA5-075971AE518E}" name="R|W" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{96D739C5-7E97-4CD2-A9A5-83A76FE1A4FB}" name="N" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{5D278FB9-5821-4979-8443-E1922BD5F27C}" name="TG CLP" dataDxfId="93">
-      <calculatedColumnFormula>CONCATENATE("IHM_",$F$1,"_",Tabela72[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{CDB3B517-E407-4679-B740-3284E946985E}" name="MB CLP" dataDxfId="92">
-      <calculatedColumnFormula>IF(Tabela72[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela72[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela72[[#This Row],[R|W]]="W","5","0"),$E$1,Tabela72[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{364ACF0B-ADC6-4BF3-941B-130A2012E72A}" name="TG IHM" dataDxfId="91">
-      <calculatedColumnFormula>CONCATENATE($F$1,".",F3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{2C60E45A-4F3A-4513-9C04-ED3F0F6C123F}" name="MB IHM" dataDxfId="90">
-      <calculatedColumnFormula>IF(Tabela72[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela72[[#This Row],[R|W]]="W","5","0"),$E$1,Tabela72[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{01FE6E74-B150-45FE-94A1-6312855D37BA}" name="Coluna1" dataDxfId="89"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4241884D-8A56-4F2A-9974-1EC032D4BD05}" name="Tabela7" displayName="Tabela7" ref="B2:K23" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
-  <autoFilter ref="B2:K23" xr:uid="{57204A81-CF48-4D54-96AB-54FBD123DF9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K23">
-    <sortCondition ref="H2:H23"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="12" xr3:uid="{C423B671-324F-4FA6-89CD-38F7E588C29A}" name="TG" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{120A3E2B-E452-4BFC-9634-BC4B7564E6E6}" name="EV" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{42EBF6D4-E2C5-4F1D-9D90-7E6177C7449E}" name="B|N" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{3A5147EB-CF8A-4527-B186-B686FA1BFDBC}" name="R|W" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{13651D3E-F9C9-4002-8059-AABA6AFEDBAC}" name="N" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{0F4F7CE5-5BC7-4A78-A9E3-FC316A7FBC75}" name="TG CLP" dataDxfId="79">
-      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela7[[#This Row],[TG]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{EE5C7C5C-9E82-420F-8E3E-E7713F669031}" name="MB CLP" dataDxfId="78">
-      <calculatedColumnFormula>IF(Tabela7[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela7[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela7[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela7[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{D0D65132-CE04-48D6-BD94-F90EE550E1B5}" name="TG IHM" dataDxfId="77">
-      <calculatedColumnFormula>CONCATENATE($C$1,".",C3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{8AD9BEBB-600B-4601-A287-52F6C1A54A10}" name="MB IHM" dataDxfId="76">
-      <calculatedColumnFormula>IF(Tabela7[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela7[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela7[[#This Row],[N]]))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA383A73-830F-4DC2-8087-23D112B9014D}" name="Coluna1" dataDxfId="75"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2A8ADCBF-A78A-4CD8-8BF8-ABFB6F589E40}" name="Tabela6" displayName="Tabela6" ref="B2:J23" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2A8ADCBF-A78A-4CD8-8BF8-ABFB6F589E40}" name="Tabela6" displayName="Tabela6" ref="B2:J23" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78">
   <autoFilter ref="B2:J23" xr:uid="{7F23E679-4627-4CB0-8144-34C6EE7855D6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:J23">
     <sortCondition ref="C2:C23"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="11" xr3:uid="{2DF6AAF5-F66C-4E85-A0DB-17CF0F77D0C4}" name="CLP" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{FC5675C0-7693-4C88-A653-1C98B47D1BAE}" name="EV" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{F3169105-439C-49C2-B20C-712181E9E1F1}" name="B|N" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{1F0B400E-4E7B-46E4-B85E-93578CA525BD}" name="R|W" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{73DC50F0-9952-4406-973C-E3A246EA36A2}" name="N" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{C199E2B8-E95D-43D6-9788-1F46F4AAAB65}" name="TAG" dataDxfId="65">
+    <tableColumn id="11" xr3:uid="{2DF6AAF5-F66C-4E85-A0DB-17CF0F77D0C4}" name="CLP" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{FC5675C0-7693-4C88-A653-1C98B47D1BAE}" name="EV" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{F3169105-439C-49C2-B20C-712181E9E1F1}" name="B|N" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{1F0B400E-4E7B-46E4-B85E-93578CA525BD}" name="R|W" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{73DC50F0-9952-4406-973C-E3A246EA36A2}" name="N" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{C199E2B8-E95D-43D6-9788-1F46F4AAAB65}" name="TAG" dataDxfId="72">
       <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela6[[#This Row],[CLP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE866749-ECB0-49D1-9E5F-CCC6231D275E}" name="MB CLP" dataDxfId="64">
+    <tableColumn id="8" xr3:uid="{BE866749-ECB0-49D1-9E5F-CCC6231D275E}" name="MB CLP" dataDxfId="71">
       <calculatedColumnFormula>IF(Tabela6[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela6[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela6[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela6[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F7C47A6F-7DD8-4999-9731-F5BC76B112BA}" name="TG IHM" dataDxfId="63">
+    <tableColumn id="9" xr3:uid="{F7C47A6F-7DD8-4999-9731-F5BC76B112BA}" name="TG IHM" dataDxfId="70">
       <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela6[[#This Row],[EV]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1B7041BE-E732-4AB5-B138-FE6399A435C5}" name="MB IHM" dataDxfId="62">
+    <tableColumn id="10" xr3:uid="{1B7041BE-E732-4AB5-B138-FE6399A435C5}" name="MB IHM" dataDxfId="69">
       <calculatedColumnFormula>IF(Tabela6[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela6[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela6[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2737,30 +3111,420 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{28D63628-83FC-4C20-B169-FC71A280897B}" name="Tabela613" displayName="Tabela613" ref="B2:J20" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{28D63628-83FC-4C20-B169-FC71A280897B}" name="Tabela613" displayName="Tabela613" ref="B2:J20" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
   <autoFilter ref="B2:J20" xr:uid="{28D63628-83FC-4C20-B169-FC71A280897B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J20">
     <sortCondition ref="H2:H20"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="11" xr3:uid="{97F490E6-81B5-4D88-8CE8-FDBAEDD41DE3}" name="CLP" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{490411F8-5837-4CBC-8AB8-313E0ADB474B}" name="EV" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{47328072-CA0D-4D3B-8A38-3C180A6B6D22}" name="B|N" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{D7EC5D06-0429-4946-9624-EBA36A435528}" name="R|W" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{43A8490F-F570-4C9F-82F6-90BB73A6CCFA}" name="N" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{811B9D40-70D3-4DCF-8E70-715C0E54266D}" name="TAG" dataDxfId="52">
+    <tableColumn id="11" xr3:uid="{97F490E6-81B5-4D88-8CE8-FDBAEDD41DE3}" name="CLP" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{490411F8-5837-4CBC-8AB8-313E0ADB474B}" name="EV" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{47328072-CA0D-4D3B-8A38-3C180A6B6D22}" name="B|N" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{D7EC5D06-0429-4946-9624-EBA36A435528}" name="R|W" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{43A8490F-F570-4C9F-82F6-90BB73A6CCFA}" name="N" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{811B9D40-70D3-4DCF-8E70-715C0E54266D}" name="TAG" dataDxfId="59">
       <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela613[[#This Row],[CLP]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4726367C-0242-44DC-B3AF-38F34897D230}" name="MB CLP" dataDxfId="51">
+    <tableColumn id="8" xr3:uid="{4726367C-0242-44DC-B3AF-38F34897D230}" name="MB CLP" dataDxfId="58">
       <calculatedColumnFormula>IF(Tabela613[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela613[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela613[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela613[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6953E17D-5EBC-491D-B8B6-476203DC330B}" name="TG IHM" dataDxfId="50">
+    <tableColumn id="9" xr3:uid="{6953E17D-5EBC-491D-B8B6-476203DC330B}" name="TG IHM" dataDxfId="57">
       <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela613[[#This Row],[EV]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DAA3AB42-5704-40FE-AAE0-8CD4435FE2C9}" name="MB IHM" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{DAA3AB42-5704-40FE-AAE0-8CD4435FE2C9}" name="MB IHM" dataDxfId="56">
       <calculatedColumnFormula>IF(Tabela613[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela613[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela613[[#This Row],[N]]))</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{FA899953-BF96-45B4-BBE9-1B02C84036C7}" name="Tabela8151720" displayName="Tabela8151720" ref="B2:K6" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+  <autoFilter ref="B2:K6" xr:uid="{FA899953-BF96-45B4-BBE9-1B02C84036C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K6">
+    <sortCondition ref="H2:H6"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="12" xr3:uid="{89511B78-0897-45C0-AD20-D892650070B8}" name="TG" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{5E2A6C8C-1DD9-4BA1-9FF0-F16F6F8423FE}" name="EV" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{159FAFD7-6890-4334-B996-597836CE5BDB}" name="B|N" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{346C03DA-D8CB-42CA-BDD1-64D097B0FD8E}" name="R|W" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{C51C63BB-01AB-4B79-879B-9036BE9E17E5}" name="N" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{56D6AC78-6511-4AC2-A99F-983A56C76FAA}" name="TG CLP" dataDxfId="46">
+      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela8151720[[#This Row],[TG]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0BDCF540-466E-4058-B5B7-70C49FD68498}" name="MB CLP" dataDxfId="45">
+      <calculatedColumnFormula>IF(Tabela8151720[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151720[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151720[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151720[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{19B4D9B3-7113-4D40-9B20-5B0EF345BE97}" name="TG IHM" dataDxfId="44">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela8151720[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{BC6B375D-B2A7-4402-A0C6-6DAC64F4E57B}" name="MB IHM" dataDxfId="43">
+      <calculatedColumnFormula>IF(Tabela8151720[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151720[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151720[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{F8D2E00F-47B8-458D-9E87-6028FCF42E00}" name="Descrição" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFF098AF-B564-44F4-A9D0-13EA0C3F7A25}" name="Tabela81517203" displayName="Tabela81517203" ref="B2:K17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="B2:K17" xr:uid="{FFF098AF-B564-44F4-A9D0-13EA0C3F7A25}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Inteira"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="000001"/>
+        <filter val="005001"/>
+        <filter val="005002"/>
+        <filter val="005003"/>
+        <filter val="400001"/>
+        <filter val="400002"/>
+        <filter val="400003"/>
+        <filter val="405001"/>
+        <filter val="405002"/>
+        <filter val="405003"/>
+        <filter val="405004"/>
+        <filter val="405005"/>
+        <filter val="405006"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K17">
+    <sortCondition ref="H2:H17"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="12" xr3:uid="{33E819CD-C8FC-4C9D-A3DE-7F6127EF6388}" name="TG" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{FF9C3947-B66E-478E-8A4A-22969AF17B66}" name="EV" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{95F5C2D7-B6F2-4DC2-9655-644F860FF5B5}" name="B|N" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{7E5D5212-8A98-4EEC-9618-BEAA9CE5FCF0}" name="R|W" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{0429277F-E724-414F-BE5E-B6AE4EC207AF}" name="N" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{62D7A312-12DC-4A66-8389-95A20D39F8B5}" name="TG CLP" dataDxfId="32">
+      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{24FFCED6-1905-4296-99DF-7DF8752AD8BF}" name="MB CLP" dataDxfId="31">
+      <calculatedColumnFormula>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2C4F7729-0C94-454E-80AA-A6D71699B486}" name="TG IHM" dataDxfId="30">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{90C1958E-AA23-4790-A129-5EAB86D93ABF}" name="MB IHM" dataDxfId="29">
+      <calculatedColumnFormula>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DEAE1762-8896-4264-A34A-77EB76E64730}" name="Descrição" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{865295CD-7082-458E-9401-9609F80E32FE}" name="Tabela815" displayName="Tabela815" ref="B2:K12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="B2:K12" xr:uid="{865295CD-7082-458E-9401-9609F80E32FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K9">
+    <sortCondition ref="H2:H9"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="12" xr3:uid="{84FDFF6B-B3C2-4CE5-B9C8-BF4D93DE50DF}" name="TG" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{70145E7A-49BE-4697-998D-C37C6F206BD1}" name="EV" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{CA52ABA4-4D2D-4FCA-B154-ACFC20A6FE5B}" name="B|N" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{2E894E82-D966-428A-B2ED-C93ED760F927}" name="R|W" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{0CC376F9-D7BE-4831-9B90-FE33E526DA5A}" name="N" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A8EFE91B-C5A6-45CD-94C3-6618E7D4A577}" name="TG CLP" dataDxfId="18">
+      <calculatedColumnFormula>CONCATENATE("IHM_",$C$1,"_",Tabela815[[#This Row],[TG]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F989F54C-341C-4037-9C36-0AEBBE555AA6}" name="MB CLP" dataDxfId="17">
+      <calculatedColumnFormula>IF(Tabela815[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3860427E-13A9-4AE4-A3C9-93CCC370460A}" name="TG IHM" dataDxfId="16">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela815[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C051E382-43D6-480D-A3A9-00F29A06A72D}" name="MB IHM" dataDxfId="15">
+      <calculatedColumnFormula>IF(Tabela815[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{98AFA6F3-9A95-4278-AC1E-F53F9BFB7D6E}" name="Descrição" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD4DD242-55CE-45E0-BD62-7CC5CCC0E6CE}" name="Tabela81517" displayName="Tabela81517" ref="B2:K4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B2:K4" xr:uid="{DD4DD242-55CE-45E0-BD62-7CC5CCC0E6CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K4">
+    <sortCondition ref="H2:H4"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="12" xr3:uid="{A32CE7B6-605B-4695-B3ED-20800B5EE22E}" name="TG" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9B49E3AD-B697-4178-8D3B-85E9D96818B7}" name="EV" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{80979EDA-8373-4759-81B6-22D733EE0CFC}" name="B|N" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C415936B-D275-4A4C-8A09-99FE8796F9CC}" name="R|W" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A71F559D-4526-405F-8C93-0DB9D6CA2CBC}" name="N" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D1CFA5F1-9615-40DE-8DE1-CA9391E54327}" name="TG CLP" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE($C$1,"_",Tabela81517[[#This Row],[TG]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{46A15C33-B623-411C-A8A1-866FBCFBAEE3}" name="MB CLP" dataDxfId="3">
+      <calculatedColumnFormula>IF(Tabela81517[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{DDBC136E-3598-4FAE-BAFD-D3418CF7E665}" name="TG IHM" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE($C$1,".",Tabela81517[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{92B8391E-3E22-447F-937C-8C911BA7A4B4}" name="MB IHM" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela81517[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{1350B97C-617A-4BDF-9D70-2AE4E5A06E70}" name="Descrição" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{EE921E7D-7893-4634-B637-FCC2229891D4}" name="Tabela8151718" displayName="Tabela8151718" ref="B3:L22" totalsRowShown="0" headerRowDxfId="234" dataDxfId="232" headerRowBorderDxfId="233" tableBorderDxfId="231">
+  <autoFilter ref="B3:L22" xr:uid="{EE921E7D-7893-4634-B637-FCC2229891D4}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Inteira"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="W"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:L19">
+    <sortCondition ref="G3:G19"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="3" xr3:uid="{4EEE6847-FF25-49FD-8AC7-ED07D3A892D1}" name="EV" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{B249CAEC-C65C-4D1D-BF20-F2A2DC85BD76}" name="B|N" dataDxfId="229"/>
+    <tableColumn id="5" xr3:uid="{F6538BB9-DDD3-4E1A-B896-AAD56CFB0CAD}" name="R|W" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{C40547D0-3224-4C8C-B8B2-5431716C4251}" name="N" dataDxfId="227"/>
+    <tableColumn id="7" xr3:uid="{A1C4178B-7236-4F8B-90CE-1763E48BCB2F}" name="TG CLP" dataDxfId="226">
+      <calculatedColumnFormula>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BB99007E-4F00-49A0-9EC5-8B7BD277B0C6}" name="MB CLP" dataDxfId="225">
+      <calculatedColumnFormula>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{683AB7F6-6EFD-40E4-B4AD-D54CFD765978}" name="TG IHM" dataDxfId="224">
+      <calculatedColumnFormula>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{284685CE-7807-47D1-8C42-E57A3F2B826A}" name="MB IHM" dataDxfId="223">
+      <calculatedColumnFormula>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{75655E50-7364-44CC-9822-92764817CE0A}" name="TG" dataDxfId="222"/>
+    <tableColumn id="10" xr3:uid="{BEC214F1-4C74-4975-BC17-45D6250AE559}" name="Descrição" dataDxfId="221"/>
+    <tableColumn id="1" xr3:uid="{D49A1410-8295-4D2A-8913-6BA59411C3EF}" name="n2" dataDxfId="220"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{61687305-1C0F-41E9-9F9B-FC2284A10EC3}" name="Tabela815171819" displayName="Tabela815171819" ref="B25:K31" totalsRowShown="0" headerRowDxfId="219" dataDxfId="217" headerRowBorderDxfId="218" tableBorderDxfId="216">
+  <autoFilter ref="B25:K31" xr:uid="{61687305-1C0F-41E9-9F9B-FC2284A10EC3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:K26">
+    <sortCondition ref="G3:G12"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{2F3E9349-A5A4-451A-A4B4-A806ADDF74C5}" name="EV" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{66AA777F-7C13-4D0A-BD5A-4D3419D7DBFA}" name="B|N" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{D7A5ED1D-F071-44DA-8F16-2BCF1677411E}" name="R|W" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{1FEB2D34-A3F5-4A46-8CB1-1009D40AE17A}" name="N" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{EFAC6259-15B2-46B8-A373-4D602E3D49F8}" name="TG CLP" dataDxfId="211">
+      <calculatedColumnFormula>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2855C055-4561-42D2-8439-877A96F3ADB9}" name="MB CLP" dataDxfId="210">
+      <calculatedColumnFormula>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9DB20D65-BA0B-4122-A789-1DE4212C4FE8}" name="TG IHM" dataDxfId="209">
+      <calculatedColumnFormula>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{6C754D11-052D-4951-A54A-B43F2C749039}" name="MB IHM" dataDxfId="208">
+      <calculatedColumnFormula>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{8DC69E18-C3E2-4DEF-B6FB-AF9DC2BF7FF0}" name="TG" dataDxfId="207"/>
+    <tableColumn id="10" xr3:uid="{5AA7135F-6F52-4431-90A6-004DBDEA31A5}" name="Descrição" dataDxfId="206"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D799D622-5E95-4922-A4A7-E01B2FE0EED5}" name="Tabela81517181914" displayName="Tabela81517181914" ref="B34:K38" totalsRowShown="0" headerRowDxfId="205" dataDxfId="203" headerRowBorderDxfId="204" tableBorderDxfId="202">
+  <autoFilter ref="B34:K38" xr:uid="{D799D622-5E95-4922-A4A7-E01B2FE0EED5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:K38">
+    <sortCondition ref="G34:G38"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{9C475415-1B69-49BF-AEA8-6C3794914FF1}" name="EV" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{783209AB-8813-48D1-9704-3441B803E645}" name="B|N" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{9B5E1D2F-BC91-4D62-8967-90420A2E2715}" name="R|W" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{3B318F53-AEC3-4CA2-9594-8112BDD85E16}" name="N" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{5052D72B-26A4-4409-A702-8584A454EB9B}" name="TG CLP" dataDxfId="197">
+      <calculatedColumnFormula>CONCATENATE($C$33,"_",Tabela81517181914[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C1EE4D02-77C0-49B3-93FA-F139B82967EE}" name="MB CLP" dataDxfId="196">
+      <calculatedColumnFormula>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D6F4013A-92F5-4507-8E81-D99E18CB158C}" name="TG IHM" dataDxfId="195">
+      <calculatedColumnFormula>CONCATENATE($C$33,".",Tabela81517181914[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{FCE7141E-BD15-48CA-B9AA-A874EE35F1A7}" name="MB IHM" dataDxfId="194">
+      <calculatedColumnFormula>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{71585E96-6429-4434-BB00-669DDF703362}" name="TG" dataDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{F7950702-157F-4407-9C01-BA64076430D5}" name="Descrição" dataDxfId="192"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C8B0172F-F144-4F64-B91B-508AA2576852}" name="Tabela8151722" displayName="Tabela8151722" ref="B3:J8" totalsRowShown="0" headerRowDxfId="190" dataDxfId="188" headerRowBorderDxfId="189" tableBorderDxfId="187">
+  <autoFilter ref="B3:J8" xr:uid="{C8B0172F-F144-4F64-B91B-508AA2576852}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:J8">
+    <sortCondition ref="G3:G8"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{B38EA29F-0233-44ED-A571-D675232F65F3}" name="EV" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{247DEE8D-7FC7-49ED-BAD9-F002987B17D9}" name="B|N" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{56ABC691-DE3A-4BFF-8F3C-F82C9D6D3C7E}" name="R|W" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{C95A13F8-E626-4F99-8818-3CA3B521D058}" name="N" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{A0E3962F-1339-494E-B37B-ACD37A6D3345}" name="TG CLP" dataDxfId="182">
+      <calculatedColumnFormula>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F0233878-9D99-406B-B91A-A09307BFE521}" name="MB CLP" dataDxfId="181">
+      <calculatedColumnFormula>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{099905CF-C5D5-4850-9FEF-EE33D5030274}" name="TG IHM" dataDxfId="180">
+      <calculatedColumnFormula>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{4ED111DA-41C0-4295-8D76-BEF85CBFA4BD}" name="MB IHM" dataDxfId="179">
+      <calculatedColumnFormula>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5B49C92A-E26B-44DF-914D-392ECEC0B4B8}" name="Descrição" dataDxfId="178"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2BECAB03-6252-435A-BFDB-5377198318E2}" name="Tabela81517225" displayName="Tabela81517225" ref="B11:J16" totalsRowShown="0" headerRowDxfId="177" dataDxfId="175" headerRowBorderDxfId="176" tableBorderDxfId="174">
+  <autoFilter ref="B11:J16" xr:uid="{2BECAB03-6252-435A-BFDB-5377198318E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:J16">
+    <sortCondition ref="G3:G8"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{E0760C16-A6B9-4CC4-82AA-8CA678B10FAD}" name="EV" dataDxfId="173"/>
+    <tableColumn id="4" xr3:uid="{75997CEC-D455-41CE-A38A-8B4F0E8940E9}" name="B|N" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{38B2A430-8E0D-423A-AC51-5CCFB9BA0E9C}" name="R|W" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{AFDE7339-B44D-4D21-B3D6-11FAC0561FAF}" name="N" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{C22B5323-35FD-412E-8601-7CD5DE1721D3}" name="TG CLP" dataDxfId="169">
+      <calculatedColumnFormula>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2C68C79D-769C-4923-A626-FD3BB88DCA02}" name="MB CLP" dataDxfId="168">
+      <calculatedColumnFormula>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5AD8152E-3798-44E5-84AC-85F8837EDBC9}" name="TG IHM" dataDxfId="167">
+      <calculatedColumnFormula>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{2E32DECA-F864-4201-845C-0111582ECDAC}" name="MB IHM" dataDxfId="166">
+      <calculatedColumnFormula>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5677640F-C30A-4013-9B11-C310752B2F83}" name="Descrição" dataDxfId="165"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D753AE4A-A3B2-4EFF-81D2-5755F5C81309}" name="Tabela815172256" displayName="Tabela815172256" ref="B19:J24" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161">
+  <autoFilter ref="B19:J24" xr:uid="{D753AE4A-A3B2-4EFF-81D2-5755F5C81309}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B20:J24">
+    <sortCondition ref="G3:G8"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{35E6B364-2F4F-4CC3-B92A-E4A7589B4BA9}" name="EV" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{5BC69B19-085E-4B9A-9255-8D279ECF789B}" name="B|N" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{82E7C378-CDCD-4087-BE7C-2C94ADD3541C}" name="R|W" dataDxfId="158"/>
+    <tableColumn id="6" xr3:uid="{173E80EE-757B-4562-96CF-E0C0B8657C28}" name="N" dataDxfId="157"/>
+    <tableColumn id="7" xr3:uid="{C81A14A5-AC04-4CD2-B941-6AC166AE78EF}" name="TG CLP" dataDxfId="156">
+      <calculatedColumnFormula>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F973CE72-5B64-4598-B24F-D3FD8405C1A3}" name="MB CLP" dataDxfId="155">
+      <calculatedColumnFormula>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{EFE5D885-293D-40FA-8DFD-6749F4C2A1CF}" name="TG IHM" dataDxfId="154">
+      <calculatedColumnFormula>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{008595A7-AA50-42D4-89DE-5038C58CAE00}" name="MB IHM" dataDxfId="153">
+      <calculatedColumnFormula>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7A9B1413-67D4-4C8F-8D06-9D73CFFF7424}" name="Descrição" dataDxfId="152"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{820E657E-9439-43FE-BD71-7A23A9843895}" name="Tabela81517225610" displayName="Tabela81517225610" ref="B27:J32" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148">
+  <autoFilter ref="B27:J32" xr:uid="{820E657E-9439-43FE-BD71-7A23A9843895}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:J32">
+    <sortCondition ref="G3:G8"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{6A7B855E-9455-4F76-B23D-5A1107D6E420}" name="EV" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{0A96A88B-D030-4122-926B-73B8DB8C937D}" name="B|N" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{52373246-71DC-4858-8EE5-7B1FEFBCD9FD}" name="R|W" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{F9790AF7-2E23-4992-9FD1-644A25D2A58D}" name="N" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{A4F7A29C-9F35-454E-9DE1-D32ABB9D8658}" name="TG CLP" dataDxfId="143">
+      <calculatedColumnFormula>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{05EFEFB1-B486-4CA9-A935-1BD9B3C104B2}" name="MB CLP" dataDxfId="142">
+      <calculatedColumnFormula>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{AB0B337A-FE28-4D81-BD8C-6C2BE6EC5983}" name="TG IHM" dataDxfId="141">
+      <calculatedColumnFormula>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{571C62CA-6F2B-4503-923F-9C56B0109BE5}" name="MB IHM" dataDxfId="140">
+      <calculatedColumnFormula>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{0291AC3A-5D41-40B1-A229-AB014CD5710B}" name="Descrição" dataDxfId="139"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{506B3B4F-CC2A-4DDC-A1BA-FA87D4305FA5}" name="Tabela8151722561012" displayName="Tabela8151722561012" ref="B35:J40" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135">
+  <autoFilter ref="B35:J40" xr:uid="{506B3B4F-CC2A-4DDC-A1BA-FA87D4305FA5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B36:J40">
+    <sortCondition ref="G3:G8"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{1DF82E58-7B93-4DD7-A19E-BEA99AD51911}" name="EV" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{7FE5EAE2-CD90-4A03-9269-3D9E68C0DD1A}" name="B|N" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{CCF9C4EC-00CD-4D19-B2FF-2E264C0E133F}" name="R|W" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{DE227132-32CC-4B77-8090-D476F33A4BFF}" name="N" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{5FF487E4-AD04-444C-BE7A-6A2E492BDA40}" name="TG CLP" dataDxfId="130">
+      <calculatedColumnFormula>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{393EA33D-26F8-43DC-8034-2A318FAA750D}" name="MB CLP" dataDxfId="129">
+      <calculatedColumnFormula>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{38CA4DAE-77FC-4A0D-8DD7-7B9F7D4289F5}" name="TG IHM" dataDxfId="128">
+      <calculatedColumnFormula>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{78526B3D-DD93-4CD9-A2BC-D2A41E115A86}" name="MB IHM" dataDxfId="127">
+      <calculatedColumnFormula>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5706F03B-2BF6-4902-8660-D611D535CF28}" name="Descrição" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3065,7 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF58A9FB-5AEA-497E-ACA8-360A3D5ADBC6}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4300,16 +5064,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:E1048576 B1:E1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:E2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -4323,10 +5087,10 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -4389,13 +5153,13 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>132</v>
@@ -4422,13 +5186,13 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>132</v>
@@ -4455,13 +5219,13 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>132</v>
@@ -4488,13 +5252,13 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>132</v>
@@ -4530,14 +5294,556 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB116E7-99E3-47DA-8D93-99218CFD2750}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Salvar</v>
+      </c>
+      <c r="H3" s="10" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>000001</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Salvar</v>
+      </c>
+      <c r="J3" s="10" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_AlarmeReset</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>005001</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.AlarmeReset</v>
+      </c>
+      <c r="J4" s="44" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_DispositivoLibera</v>
+      </c>
+      <c r="H5" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>005002</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.DispositivoLibera</v>
+      </c>
+      <c r="J5" s="45" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Imprime</v>
+      </c>
+      <c r="H6" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>005003</v>
+      </c>
+      <c r="I6" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Imprime</v>
+      </c>
+      <c r="J6" s="45" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_AlarmeNumero</v>
+      </c>
+      <c r="H7" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>400001</v>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.AlarmeNumero</v>
+      </c>
+      <c r="J7" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_ProducaoAtual</v>
+      </c>
+      <c r="H8" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>400002</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.ProducaoAtual</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>0002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Ordem</v>
+      </c>
+      <c r="H9" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Ordem</v>
+      </c>
+      <c r="J9" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_TrackNumber</v>
+      </c>
+      <c r="H10" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>400003</v>
+      </c>
+      <c r="I10" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.TrackNumber</v>
+      </c>
+      <c r="J10" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>0003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Modelo</v>
+      </c>
+      <c r="H11" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405001</v>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Modelo</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Operador</v>
+      </c>
+      <c r="H12" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405002</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Operador</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Ordem1</v>
+      </c>
+      <c r="H13" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405003</v>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Ordem1</v>
+      </c>
+      <c r="J13" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Ordem2</v>
+      </c>
+      <c r="H14" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405004</v>
+      </c>
+      <c r="I14" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Ordem2</v>
+      </c>
+      <c r="J14" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Senha</v>
+      </c>
+      <c r="H15" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="I15" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Senha</v>
+      </c>
+      <c r="J15" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_ProducaoAlvo</v>
+      </c>
+      <c r="H16" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405005</v>
+      </c>
+      <c r="I16" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.ProducaoAlvo</v>
+      </c>
+      <c r="J16" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
+      <c r="G17" s="30" t="str">
+        <f>CONCATENATE($C$1,"_",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM_Tipo</v>
+      </c>
+      <c r="H17" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>405006</v>
+      </c>
+      <c r="I17" s="30" t="str">
+        <f>CONCATENATE($C$1,".",Tabela81517203[[#This Row],[EV]])</f>
+        <v>IHM.Tipo</v>
+      </c>
+      <c r="J17" s="30" t="str">
+        <f>IF(Tabela81517203[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517203[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela81517203[[#This Row],[N]]))</f>
+        <v>5006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D90B92-2C09-455B-8927-244FEEE82B0F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -4560,7 +5866,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L1" s="15"/>
     </row>
@@ -4598,19 +5904,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G3" s="30" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela815[[#This Row],[TG]])</f>
@@ -4631,19 +5937,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G4" s="30" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela815[[#This Row],[TG]])</f>
@@ -4664,13 +5970,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>129</v>
@@ -4697,13 +6003,13 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>129</v>
@@ -4730,13 +6036,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>129</v>
@@ -4763,13 +6069,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>129</v>
@@ -4796,13 +6102,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>129</v>
@@ -4829,13 +6135,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -4858,13 +6164,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4887,13 +6193,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4923,15 +6229,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35066DB6-DCA5-4AD3-95DC-5E186B621781}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -4955,7 +6261,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L1" s="15"/>
     </row>
@@ -4993,13 +6299,13 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>132</v>
@@ -5026,13 +6332,13 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>132</v>
@@ -5067,117 +6373,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A13CE96-FB9F-4D04-9FEA-8CEE1768C298}">
-  <dimension ref="B2:B39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -5187,87 +6491,87 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5277,1046 +6581,2119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9ED4CD4-EEB0-4257-ACC8-DA4995404BC2}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="K3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Password</v>
+      </c>
+      <c r="G4" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H4" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Password</v>
+      </c>
+      <c r="I4" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="L4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_ProductionOrder</v>
+      </c>
+      <c r="G5" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H5" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.ProductionOrder</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Save</v>
+      </c>
+      <c r="G6" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H6" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Save</v>
+      </c>
+      <c r="I6" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="L6" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_AlarmeReset</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>005001</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.AlarmeReset</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5001</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="L7" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_DeviceRelease</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>005002</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.DeviceRelease</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5002</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_btPrint</v>
+      </c>
+      <c r="G9" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>005003</v>
+      </c>
+      <c r="H9" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.btPrint</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5003</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="L9" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4</v>
+      </c>
+      <c r="F10" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Start</v>
+      </c>
+      <c r="G10" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>005004</v>
+      </c>
+      <c r="H10" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Start</v>
+      </c>
+      <c r="I10" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5004</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="L10" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_AlarmNumber</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>400001</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.AlarmNumber</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>0001</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_ProductionCurrent</v>
+      </c>
+      <c r="G12" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>400002</v>
+      </c>
+      <c r="H12" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.ProductionCurrent</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>0002</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L12" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Type</v>
+      </c>
+      <c r="G13" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>400003</v>
+      </c>
+      <c r="H13" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Type</v>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>0003</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Model</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405001</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Model</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5001</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_UserID</v>
+      </c>
+      <c r="G15" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405002</v>
+      </c>
+      <c r="H15" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.UserID</v>
+      </c>
+      <c r="I15" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5002</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_OrderA</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405003</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.OrderA</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5003</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_OrderB</v>
+      </c>
+      <c r="G17" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405004</v>
+      </c>
+      <c r="H17" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.OrderB</v>
+      </c>
+      <c r="I17" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5004</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="L17" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_ProductionGoal</v>
+      </c>
+      <c r="G18" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405005</v>
+      </c>
+      <c r="H18" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.ProductionGoal</v>
+      </c>
+      <c r="I18" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5005</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6</v>
+      </c>
+      <c r="F19" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_ReworkGoal</v>
+      </c>
+      <c r="G19" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405006</v>
+      </c>
+      <c r="H19" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.ReworkGoal</v>
+      </c>
+      <c r="I19" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5006</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="L19" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="12">
+        <v>7</v>
+      </c>
+      <c r="F20" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_RepositionGoal</v>
+      </c>
+      <c r="G20" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405007</v>
+      </c>
+      <c r="H20" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.RepositionGoal</v>
+      </c>
+      <c r="I20" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5007</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="L20" s="24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="12">
+        <v>8</v>
+      </c>
+      <c r="F21" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_Q</v>
+      </c>
+      <c r="G21" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405008</v>
+      </c>
+      <c r="H21" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.Q</v>
+      </c>
+      <c r="I21" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5008</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="12">
+        <v>9</v>
+      </c>
+      <c r="F22" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM_ZGS</v>
+      </c>
+      <c r="G22" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>405009</v>
+      </c>
+      <c r="H22" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151718[[#This Row],[EV]])</f>
+        <v>IHM.ZGS</v>
+      </c>
+      <c r="I22" s="30" t="str">
+        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151718[[#This Row],[N]]))</f>
+        <v>5009</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G25" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H25" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="J25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_SN</v>
-      </c>
-      <c r="H3" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Year</v>
+      </c>
+      <c r="G26" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405011</v>
+      </c>
+      <c r="H26" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Year</v>
+      </c>
+      <c r="I26" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5011</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Month</v>
+      </c>
+      <c r="G27" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405012</v>
+      </c>
+      <c r="H27" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Month</v>
+      </c>
+      <c r="I27" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5012</v>
+      </c>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Day</v>
+      </c>
+      <c r="G28" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405013</v>
+      </c>
+      <c r="H28" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Day</v>
+      </c>
+      <c r="I28" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5013</v>
+      </c>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Hour</v>
+      </c>
+      <c r="G29" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405014</v>
+      </c>
+      <c r="H29" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Hour</v>
+      </c>
+      <c r="I29" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5014</v>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Minute</v>
+      </c>
+      <c r="G30" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405015</v>
+      </c>
+      <c r="H30" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Minute</v>
+      </c>
+      <c r="I30" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5015</v>
+      </c>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="12">
+        <v>6</v>
+      </c>
+      <c r="F31" s="30" t="str">
+        <f>CONCATENATE($C$24,"_",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM_Second</v>
+      </c>
+      <c r="G31" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>405016</v>
+      </c>
+      <c r="H31" s="30" t="str">
+        <f>CONCATENATE($C$24,".",Tabela815171819[[#This Row],[EV]])</f>
+        <v>IHM.Second</v>
+      </c>
+      <c r="I31" s="30" t="str">
+        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$24,Tabela815171819[[#This Row],[N]]))</f>
+        <v>5016</v>
+      </c>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="30" t="str">
+        <f>CONCATENATE($C$33,"_",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation_Code</v>
+      </c>
+      <c r="G35" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-      <c r="I3" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Senha</v>
-      </c>
-      <c r="J3" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
+      <c r="H35" s="30" t="str">
+        <f>CONCATENATE($C$33,".",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation.Code</v>
+      </c>
+      <c r="I35" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_OP</v>
-      </c>
-      <c r="H4" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="30" t="str">
+        <f>CONCATENATE($C$33,"_",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation_FinalDate</v>
+      </c>
+      <c r="G36" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-      <c r="I4" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Ordem</v>
-      </c>
-      <c r="J4" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
+      <c r="H36" s="30" t="str">
+        <f>CONCATENATE($C$33,".",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation.FinalDate</v>
+      </c>
+      <c r="I36" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_SV</v>
-      </c>
-      <c r="H5" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>-</v>
-      </c>
-      <c r="I5" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Salvar</v>
-      </c>
-      <c r="J5" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="18">
+      <c r="E37" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_RS</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>005001</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.AlarmeReset</v>
-      </c>
-      <c r="J6" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F37" s="30" t="str">
+        <f>CONCATENATE($C$33,"_",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation_Start</v>
+      </c>
+      <c r="G37" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
+        <v>005021</v>
+      </c>
+      <c r="H37" s="30" t="str">
+        <f>CONCATENATE($C$33,".",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation.Start</v>
+      </c>
+      <c r="I37" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
+        <v>5021</v>
+      </c>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_LB</v>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>005002</v>
-      </c>
-      <c r="I7" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.DispositivoLibera</v>
-      </c>
-      <c r="J7" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_IMP</v>
-      </c>
-      <c r="H8" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>005003</v>
-      </c>
-      <c r="I8" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Imprime</v>
-      </c>
-      <c r="J8" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E38" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_AL</v>
-      </c>
-      <c r="H9" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>400001</v>
-      </c>
-      <c r="I9" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.AlarmeNumero</v>
-      </c>
-      <c r="J9" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>0001</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-      <c r="G10" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_PD_AT</v>
-      </c>
-      <c r="H10" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>400002</v>
-      </c>
-      <c r="I10" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.ProducaoAtual</v>
-      </c>
-      <c r="J10" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>0002</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="12">
-        <v>3</v>
-      </c>
-      <c r="G11" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_MD_TP</v>
-      </c>
-      <c r="H11" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>400003</v>
-      </c>
-      <c r="I11" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Tipo</v>
-      </c>
-      <c r="J11" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>0003</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_MD_NM</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>405001</v>
-      </c>
-      <c r="I12" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Modelo</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5001</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
-      </c>
-      <c r="G13" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_ID</v>
-      </c>
-      <c r="H13" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>405002</v>
-      </c>
-      <c r="I13" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Operador</v>
-      </c>
-      <c r="J13" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5002</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="18">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_OP1</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>405003</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Ordem1</v>
-      </c>
-      <c r="J14" s="10" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_OP2</v>
-      </c>
-      <c r="H15" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>405004</v>
-      </c>
-      <c r="I15" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.Ordem2</v>
-      </c>
-      <c r="J15" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151718[[#This Row],[TG]])</f>
-        <v>IHM_PD_AV</v>
-      </c>
-      <c r="H16" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>405005</v>
-      </c>
-      <c r="I16" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151718[[#This Row],[EV]])</f>
-        <v>IHM.ProducaoAlvo</v>
-      </c>
-      <c r="J16" s="30" t="str">
-        <f>IF(Tabela8151718[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151718[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151718[[#This Row],[N]]))</f>
-        <v>5005</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_AA</v>
-      </c>
-      <c r="H20" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405001</v>
-      </c>
-      <c r="I20" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Ano</v>
-      </c>
-      <c r="J20" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_MM</v>
-      </c>
-      <c r="H21" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405002</v>
-      </c>
-      <c r="I21" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Mes</v>
-      </c>
-      <c r="J21" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="12">
-        <v>3</v>
-      </c>
-      <c r="G22" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_DD</v>
-      </c>
-      <c r="H22" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405003</v>
-      </c>
-      <c r="I22" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Dia</v>
-      </c>
-      <c r="J22" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="12">
-        <v>4</v>
-      </c>
-      <c r="G23" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_HR</v>
-      </c>
-      <c r="H23" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405004</v>
-      </c>
-      <c r="I23" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Hora</v>
-      </c>
-      <c r="J23" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="12">
-        <v>5</v>
-      </c>
-      <c r="G24" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_MN</v>
-      </c>
-      <c r="H24" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405005</v>
-      </c>
-      <c r="I24" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Minuto</v>
-      </c>
-      <c r="J24" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="12">
-        <v>6</v>
-      </c>
-      <c r="G25" s="30" t="str">
-        <f>CONCATENATE($C$18,"_",Tabela815171819[[#This Row],[TG]])</f>
-        <v>IHM_SG</v>
-      </c>
-      <c r="H25" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela815171819[[#This Row],[N]]))</f>
-        <v>405006</v>
-      </c>
-      <c r="I25" s="30" t="str">
-        <f>CONCATENATE($C$18,".",Tabela815171819[[#This Row],[EV]])</f>
-        <v>IHM.Segundo</v>
-      </c>
-      <c r="J25" s="30" t="str">
-        <f>IF(Tabela815171819[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815171819[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815171819[[#This Row],[N]]))</f>
-        <v>5016</v>
-      </c>
+      <c r="F38" s="30" t="str">
+        <f>CONCATENATE($C$33,"_",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation_Goal</v>
+      </c>
+      <c r="G38" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
+        <v>405021</v>
+      </c>
+      <c r="H38" s="30" t="str">
+        <f>CONCATENATE($C$33,".",Tabela81517181914[[#This Row],[EV]])</f>
+        <v>Deviation.Goal</v>
+      </c>
+      <c r="I38" s="30" t="str">
+        <f>IF(Tabela81517181914[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517181914[[#This Row],[R|W]]="W","5","0"),$B$33,Tabela81517181914[[#This Row],[N]]))</f>
+        <v>5021</v>
+      </c>
+      <c r="J38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEB737F-2CF3-40BE-9C1B-8FE92865DF2B}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="2" max="2" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" s="10" t="str">
-        <f>CONCATENATE("OP",RIGHT(B1,1),"0")</f>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>CONCATENATE("OP",RIGHT(B2,1),"0")</f>
+        <v>OP20</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20_Modelo</v>
+      </c>
+      <c r="G4" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H4" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20.Modelo</v>
+      </c>
+      <c r="I4" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20_Ordem</v>
+      </c>
+      <c r="G5" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H5" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20.Ordem</v>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20_Salvar</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>000021</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20.Salvar</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>0021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20_Passo</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>400021</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20.Passo</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>0021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="30" t="str">
+        <f>CONCATENATE($C$2,"_",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20_Producao</v>
+      </c>
+      <c r="G8" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>400022</v>
+      </c>
+      <c r="H8" s="30" t="str">
+        <f>CONCATENATE($C$2,".",Tabela8151722[[#This Row],[EV]])</f>
+        <v>OP20.Producao</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$2,Tabela8151722[[#This Row],[N]]))</f>
+        <v>0022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f>CONCATENATE("OP",RIGHT(B10,1),"0")</f>
+        <v>OP30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="30" t="str">
+        <f>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30_Modelo</v>
+      </c>
+      <c r="G12" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H12" s="30" t="str">
+        <f>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30.Modelo</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30_Ordem</v>
+      </c>
+      <c r="G13" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H13" s="30" t="str">
+        <f>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30.Ordem</v>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30_Salvar</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>000031</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30.Salvar</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>0031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30_Passo</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>400031</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30.Passo</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>0031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="30" t="str">
+        <f>CONCATENATE($C$10,"_",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30_Producao</v>
+      </c>
+      <c r="G16" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>400032</v>
+      </c>
+      <c r="H16" s="30" t="str">
+        <f>CONCATENATE($C$10,".",Tabela81517225[[#This Row],[EV]])</f>
+        <v>OP30.Producao</v>
+      </c>
+      <c r="I16" s="30" t="str">
+        <f>IF(Tabela81517225[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225[[#This Row],[R|W]]="W","5","0"),$B$10,Tabela81517225[[#This Row],[N]]))</f>
+        <v>0032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f>CONCATENATE("OP",RIGHT(B18,1),"0")</f>
         <v>OP40</v>
       </c>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="19" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</f>
-        <v>OP40_MOD</v>
-      </c>
-      <c r="H3" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="C20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="30" t="str">
+        <f>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</f>
+        <v>OP40_Modelo</v>
+      </c>
+      <c r="G20" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-      <c r="I3" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</f>
+      <c r="H20" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</f>
         <v>OP40.Modelo</v>
       </c>
-      <c r="J3" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="I20" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</f>
-        <v>OP40_OP</v>
-      </c>
-      <c r="H4" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="30" t="str">
+        <f>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</f>
+        <v>OP40_Ordem</v>
+      </c>
+      <c r="G21" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
-      <c r="I4" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</f>
+      <c r="H21" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</f>
         <v>OP40.Ordem</v>
       </c>
-      <c r="J4" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="I21" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="18">
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</f>
-        <v>OP40_SV</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="F22" s="10" t="str">
+        <f>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</f>
+        <v>OP40_Salvar</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>000041</v>
       </c>
-      <c r="I5" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</f>
+      <c r="H22" s="10" t="str">
+        <f>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</f>
         <v>OP40.Salvar</v>
       </c>
-      <c r="J5" s="10" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="I22" s="10" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>0041</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="12" t="s">
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="18">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</f>
-        <v>OP40_STP</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="F23" s="10" t="str">
+        <f>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</f>
+        <v>OP40_Passo</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>400041</v>
       </c>
-      <c r="I6" s="10" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</f>
+      <c r="H23" s="10" t="str">
+        <f>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</f>
         <v>OP40.Passo</v>
       </c>
-      <c r="J6" s="10" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="I23" s="10" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>0041</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="12" t="s">
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="12">
+      <c r="E24" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="30" t="str">
-        <f>CONCATENATE($C$1,"_",Tabela8151722[[#This Row],[TG]])</f>
-        <v>OP40_PD</v>
-      </c>
-      <c r="H7" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="F24" s="30" t="str">
+        <f>CONCATENATE($C$18,"_",Tabela815172256[[#This Row],[EV]])</f>
+        <v>OP40_Producao</v>
+      </c>
+      <c r="G24" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>400042</v>
       </c>
-      <c r="I7" s="30" t="str">
-        <f>CONCATENATE($C$1,".",Tabela8151722[[#This Row],[EV]])</f>
+      <c r="H24" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela815172256[[#This Row],[EV]])</f>
         <v>OP40.Producao</v>
       </c>
-      <c r="J7" s="30" t="str">
-        <f>IF(Tabela8151722[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722[[#This Row],[R|W]]="W","5","0"),$B$1,Tabela8151722[[#This Row],[N]]))</f>
+      <c r="I24" s="30" t="str">
+        <f>IF(Tabela815172256[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela815172256[[#This Row],[R|W]]="W","5","0"),$B$18,Tabela815172256[[#This Row],[N]]))</f>
         <v>0042</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f>CONCATENATE("OP",RIGHT(B26,1),"0")</f>
+        <v>OP50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="30" t="str">
+        <f>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP50_Modelo</v>
+      </c>
+      <c r="G28" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H28" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP40.Modelo</v>
+      </c>
+      <c r="I28" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="30" t="str">
+        <f>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP50_Ordem</v>
+      </c>
+      <c r="G29" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H29" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP40.Ordem</v>
+      </c>
+      <c r="I29" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP50_Salvar</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>000051</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP40.Salvar</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>0051</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP50_Passo</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>400051</v>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP40.Passo</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>0051</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="30" t="str">
+        <f>CONCATENATE($C$26,"_",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP50_Producao</v>
+      </c>
+      <c r="G32" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>400052</v>
+      </c>
+      <c r="H32" s="30" t="str">
+        <f>CONCATENATE($C$18,".",Tabela81517225610[[#This Row],[EV]])</f>
+        <v>OP40.Producao</v>
+      </c>
+      <c r="I32" s="30" t="str">
+        <f>IF(Tabela81517225610[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela81517225610[[#This Row],[R|W]]="W","5","0"),$B$26,Tabela81517225610[[#This Row],[N]]))</f>
+        <v>0052</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f>CONCATENATE("OP",RIGHT(B34,1),"0")</f>
+        <v>OP60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="30" t="str">
+        <f>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60_Modelo</v>
+      </c>
+      <c r="G36" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H36" s="30" t="str">
+        <f>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60.Modelo</v>
+      </c>
+      <c r="I36" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="30" t="str">
+        <f>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60_Ordem</v>
+      </c>
+      <c r="G37" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+      <c r="H37" s="30" t="str">
+        <f>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60.Ordem</v>
+      </c>
+      <c r="I37" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60_Salvar</v>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>000061</v>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60.Salvar</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>0061</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60_Passo</v>
+      </c>
+      <c r="G39" s="10" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>400061</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60.Passo</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>0061</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2</v>
+      </c>
+      <c r="F40" s="30" t="str">
+        <f>CONCATENATE($C$34,"_",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60_Producao</v>
+      </c>
+      <c r="G40" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[B|N]]="Inteira","40","00"),IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>400062</v>
+      </c>
+      <c r="H40" s="30" t="str">
+        <f>CONCATENATE($C$34,".",Tabela8151722561012[[#This Row],[EV]])</f>
+        <v>OP60.Producao</v>
+      </c>
+      <c r="I40" s="30" t="str">
+        <f>IF(Tabela8151722561012[[#This Row],[R|W]]="D","-",CONCATENATE(IF(Tabela8151722561012[[#This Row],[R|W]]="W","5","0"),$B$34,Tabela8151722561012[[#This Row],[N]]))</f>
+        <v>0062</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="H9:H10 H17:H18 H25:H26 G27:G32 G19:G24 G11:G16 G3:G8 H2 H41:H1048576 H33:H34 G35:G40">
+    <cfRule type="duplicateValues" dxfId="191" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6326,10 +8703,10 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -6342,7 +8719,7 @@
     <col min="9" max="9" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
@@ -6390,24 +8767,24 @@
         <v>144</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G3" s="10" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela8[[#This Row],[TG]])</f>
@@ -6429,18 +8806,18 @@
         <v>133</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>129</v>
@@ -6465,19 +8842,19 @@
         <v>5121</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>129</v>
@@ -6502,19 +8879,19 @@
         <v>5122</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>132</v>
@@ -6539,24 +8916,24 @@
         <v>0121</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>132</v>
@@ -6581,21 +8958,21 @@
         <v>0122</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>129</v>
@@ -6620,21 +8997,21 @@
         <v>5121</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>129</v>
@@ -6659,21 +9036,21 @@
         <v>5122</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>129</v>
@@ -6698,7 +9075,7 @@
         <v>5123</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L10" s="24"/>
     </row>
@@ -6716,7 +9093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A087C0-E4BE-4714-8755-742C9A193015}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -6751,10 +9128,10 @@
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>139</v>
@@ -6784,30 +9161,30 @@
         <v>143</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J3" s="38" t="str">
         <f>CONCATENATE("IHM_",$F$1,"_",Tabela72[[#This Row],[TG]])</f>
@@ -6818,7 +9195,7 @@
         <v>-</v>
       </c>
       <c r="L3" s="38" t="str">
-        <f>CONCATENATE($F$1,".",F3)</f>
+        <f t="shared" ref="L3:L11" si="0">CONCATENATE($F$1,".",F3)</f>
         <v>CC1.Salvar</v>
       </c>
       <c r="M3" s="40" t="str">
@@ -6826,30 +9203,30 @@
         <v>-</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J4" s="8" t="str">
         <f>CONCATENATE("IHM_",$F$1,"_",Tabela72[[#This Row],[TG]])</f>
@@ -6860,7 +9237,7 @@
         <v>-</v>
       </c>
       <c r="L4" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F4)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Modelo</v>
       </c>
       <c r="M4" t="str">
@@ -6868,24 +9245,24 @@
         <v>-</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>132</v>
@@ -6902,7 +9279,7 @@
         <v>000311</v>
       </c>
       <c r="L5" s="38" t="str">
-        <f>CONCATENATE($F$1,".",F5)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Aprovado</v>
       </c>
       <c r="M5" s="40" t="str">
@@ -6910,24 +9287,24 @@
         <v>0311</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>132</v>
@@ -6944,7 +9321,7 @@
         <v>000312</v>
       </c>
       <c r="L6" s="38" t="str">
-        <f>CONCATENATE($F$1,".",F6)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Reprovado</v>
       </c>
       <c r="M6" s="40" t="str">
@@ -6952,24 +9329,24 @@
         <v>0312</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>129</v>
@@ -6986,7 +9363,7 @@
         <v>005311</v>
       </c>
       <c r="L7" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F7)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Calibrar</v>
       </c>
       <c r="M7" t="str">
@@ -6994,24 +9371,24 @@
         <v>5311</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>129</v>
@@ -7028,7 +9405,7 @@
         <v>005312</v>
       </c>
       <c r="L8" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F8)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Testar</v>
       </c>
       <c r="M8" t="str">
@@ -7039,16 +9416,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>129</v>
@@ -7065,7 +9442,7 @@
         <v>005313</v>
       </c>
       <c r="L9" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F9)</f>
+        <f t="shared" si="0"/>
         <v>CC1.Zerar</v>
       </c>
       <c r="M9" t="str">
@@ -7076,16 +9453,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>132</v>
@@ -7102,7 +9479,7 @@
         <v>400311</v>
       </c>
       <c r="L10" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F10)</f>
+        <f t="shared" si="0"/>
         <v>CC1.PicoEntrada</v>
       </c>
       <c r="M10" t="str">
@@ -7110,18 +9487,18 @@
         <v>0311</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>132</v>
@@ -7138,7 +9515,7 @@
         <v>400312</v>
       </c>
       <c r="L11" s="8" t="str">
-        <f>CONCATENATE($F$1,".",F11)</f>
+        <f t="shared" si="0"/>
         <v>CC1.PicoSaida</v>
       </c>
       <c r="M11" t="str">
@@ -7146,18 +9523,18 @@
         <v>0312</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>132</v>
@@ -7174,7 +9551,7 @@
         <v>400313</v>
       </c>
       <c r="L12" s="8" t="str">
-        <f t="shared" ref="L3:L23" si="0">CONCATENATE($F$1,".",F12)</f>
+        <f t="shared" ref="L12:L23" si="1">CONCATENATE($F$1,".",F12)</f>
         <v>CC1.SensorEntrada</v>
       </c>
       <c r="M12" t="str">
@@ -7182,18 +9559,18 @@
         <v>0313</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>132</v>
@@ -7210,7 +9587,7 @@
         <v>400314</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.SensorSaida</v>
       </c>
       <c r="M13" t="str">
@@ -7218,18 +9595,18 @@
         <v>0314</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>129</v>
@@ -7246,7 +9623,7 @@
         <v>405310</v>
       </c>
       <c r="L14" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.DeslocamentoAngular</v>
       </c>
       <c r="M14" s="40" t="str">
@@ -7254,18 +9631,18 @@
         <v>5310</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>129</v>
@@ -7282,7 +9659,7 @@
         <v>405311</v>
       </c>
       <c r="L15" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.DeslocamentoLinear</v>
       </c>
       <c r="M15" s="40" t="str">
@@ -7290,18 +9667,18 @@
         <v>5311</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>129</v>
@@ -7318,7 +9695,7 @@
         <v>405312</v>
       </c>
       <c r="L16" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.EntradaMaxima</v>
       </c>
       <c r="M16" s="40" t="str">
@@ -7326,18 +9703,18 @@
         <v>5312</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>129</v>
@@ -7354,7 +9731,7 @@
         <v>405313</v>
       </c>
       <c r="L17" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.EntradaMinima</v>
       </c>
       <c r="M17" s="40" t="str">
@@ -7362,18 +9739,18 @@
         <v>5313</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>129</v>
@@ -7390,7 +9767,7 @@
         <v>405314</v>
       </c>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.Maximo</v>
       </c>
       <c r="M18" t="str">
@@ -7398,18 +9775,18 @@
         <v>5314</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>129</v>
@@ -7426,7 +9803,7 @@
         <v>405315</v>
       </c>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.Medido</v>
       </c>
       <c r="M19" t="str">
@@ -7434,18 +9811,18 @@
         <v>5315</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>129</v>
@@ -7462,7 +9839,7 @@
         <v>405316</v>
       </c>
       <c r="L20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.Minimo</v>
       </c>
       <c r="M20" t="str">
@@ -7470,18 +9847,18 @@
         <v>5316</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>129</v>
@@ -7498,7 +9875,7 @@
         <v>405317</v>
       </c>
       <c r="L21" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.SaidaMaxima</v>
       </c>
       <c r="M21" s="40" t="str">
@@ -7506,18 +9883,18 @@
         <v>5317</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>129</v>
@@ -7534,7 +9911,7 @@
         <v>405318</v>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.SaidaMinima</v>
       </c>
       <c r="M22" s="40" t="str">
@@ -7542,18 +9919,18 @@
         <v>5318</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>129</v>
@@ -7570,7 +9947,7 @@
         <v>405319</v>
       </c>
       <c r="L23" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CC1.Tempo</v>
       </c>
       <c r="M23" s="40" t="str">
@@ -7578,13 +9955,13 @@
         <v>5319</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -7597,7 +9974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D573257-0390-488D-9525-95C546107D64}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7655,24 +10032,24 @@
         <v>143</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G3" s="38" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela7[[#This Row],[TG]])</f>
@@ -7691,24 +10068,24 @@
         <v>-</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela7[[#This Row],[TG]])</f>
@@ -7727,19 +10104,19 @@
         <v>-</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>132</v>
@@ -7764,19 +10141,19 @@
         <v>0211</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>132</v>
@@ -7801,19 +10178,19 @@
         <v>0212</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>129</v>
@@ -7838,19 +10215,19 @@
         <v>5211</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>129</v>
@@ -7879,13 +10256,13 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>129</v>
@@ -7914,13 +10291,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>132</v>
@@ -7945,18 +10322,18 @@
         <v>0211</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>132</v>
@@ -7981,18 +10358,18 @@
         <v>0212</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>132</v>
@@ -8017,18 +10394,18 @@
         <v>0213</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>132</v>
@@ -8053,18 +10430,18 @@
         <v>0214</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>129</v>
@@ -8089,18 +10466,18 @@
         <v>5210</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>129</v>
@@ -8125,18 +10502,18 @@
         <v>5211</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>129</v>
@@ -8161,18 +10538,18 @@
         <v>5212</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>129</v>
@@ -8197,18 +10574,18 @@
         <v>5213</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>129</v>
@@ -8233,18 +10610,18 @@
         <v>5214</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>129</v>
@@ -8269,18 +10646,18 @@
         <v>5215</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>129</v>
@@ -8305,18 +10682,18 @@
         <v>5216</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>129</v>
@@ -8341,18 +10718,18 @@
         <v>5217</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>129</v>
@@ -8377,18 +10754,18 @@
         <v>5218</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>129</v>
@@ -8413,7 +10790,7 @@
         <v>5219</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8433,7 +10810,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
@@ -8462,7 +10839,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I1" s="17"/>
       <c r="K1" s="15"/>
@@ -8470,7 +10847,7 @@
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>125</v>
@@ -8499,16 +10876,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="16" t="str">
@@ -8530,19 +10907,19 @@
     </row>
     <row r="4" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G4" s="23" t="str">
         <f>CONCATENATE("IHM_",$C$1,"_",Tabela6[[#This Row],[CLP]])</f>
@@ -8564,13 +10941,13 @@
     </row>
     <row r="5" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>132</v>
@@ -8598,13 +10975,13 @@
     </row>
     <row r="6" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>132</v>
@@ -8632,13 +11009,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>129</v>
@@ -8665,13 +11042,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>129</v>
@@ -8698,13 +11075,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>129</v>
@@ -8731,13 +11108,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>132</v>
@@ -8764,13 +11141,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>132</v>
@@ -8797,13 +11174,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>132</v>
@@ -8830,13 +11207,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>132</v>
@@ -8863,13 +11240,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>132</v>
@@ -8896,13 +11273,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>132</v>
@@ -8929,13 +11306,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>132</v>
@@ -8962,13 +11339,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>132</v>
@@ -8995,13 +11372,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>129</v>
@@ -9028,13 +11405,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>129</v>
@@ -9061,13 +11438,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>129</v>
@@ -9094,13 +11471,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>129</v>
@@ -9128,13 +11505,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>129</v>
@@ -9161,13 +11538,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>129</v>
@@ -9237,7 +11614,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="16" bestFit="1" customWidth="1"/>
@@ -9266,7 +11643,7 @@
         <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I1" s="17"/>
       <c r="K1" s="15"/>
@@ -9274,7 +11651,7 @@
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>125</v>
@@ -9303,16 +11680,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="16" t="str">
@@ -9334,13 +11711,13 @@
     </row>
     <row r="4" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>129</v>
@@ -9368,13 +11745,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>129</v>
@@ -9401,13 +11778,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>129</v>
@@ -9434,13 +11811,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>132</v>
@@ -9467,13 +11844,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>132</v>
@@ -9500,13 +11877,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>132</v>
@@ -9533,13 +11910,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>132</v>
@@ -9566,13 +11943,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>132</v>
@@ -9599,13 +11976,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>132</v>
@@ -9632,13 +12009,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>132</v>
@@ -9665,13 +12042,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>132</v>
@@ -9698,13 +12075,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>129</v>
@@ -9731,13 +12108,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>129</v>
@@ -9764,13 +12141,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>129</v>
@@ -9797,13 +12174,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>129</v>
@@ -9830,13 +12207,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>129</v>
@@ -9863,13 +12240,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>129</v>
@@ -9937,6 +12314,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F4B7B0C995F7A548A02B7203F406C0B9" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7eaf330260c9aeb2e3baed5b68f68383">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2f45c62c-e765-4aef-8307-ee1908fc8b0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9d8eb7b2fbb34328a32425f5bb35a5c" ns3:_="">
     <xsd:import namespace="2f45c62c-e765-4aef-8307-ee1908fc8b0a"/>
@@ -10068,15 +12454,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10084,6 +12461,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0E3A422-08B2-40BA-B5A1-77D5825588D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965BE450-A242-4125-B2B7-48B1DDE62616}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10097,14 +12482,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0E3A422-08B2-40BA-B5A1-77D5825588D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
